--- a/Income/MSCI_inc.xlsx
+++ b/Income/MSCI_inc.xlsx
@@ -2142,16 +2142,16 @@
         <v>0.7768</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.776</v>
+        <v>0.7886</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.7853</v>
+        <v>0.7981</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.7946</v>
+        <v>0.8075</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.7973</v>
+        <v>0.8107</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.8027</v>
@@ -2650,16 +2650,16 @@
         <v>0.4616</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.4756</v>
+        <v>0.4723</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>0.4726</v>
+        <v>0.4692</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0.4301</v>
+        <v>0.4267</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.4245</v>
+        <v>0.421</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0.384</v>
@@ -4245,16 +4245,16 @@
         <v>0.5872</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.5785</v>
+        <v>0.5792</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0.5723</v>
+        <v>0.5729</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.5692</v>
+        <v>0.5699</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.5524</v>
+        <v>0.5531</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0.5456</v>
@@ -4372,16 +4372,16 @@
         <v>0.4917</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>0.5073</v>
+        <v>0.504</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>0.5068</v>
+        <v>0.5034</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>0.4653</v>
+        <v>0.4619</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>0.459</v>
+        <v>0.4555</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>0.4224</v>
